--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,79 +43,103 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>cracked</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>ok</t>
   </si>
   <si>
     <t>months</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>1</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>spray</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>received</t>
@@ -124,58 +148,88 @@
     <t>back</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>sent</t>
   </si>
   <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>iron</t>
+    <t>side</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>sharpe</t>
   </si>
   <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>design</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>lasted</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>rust</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>way</t>
@@ -184,102 +238,69 @@
     <t>small</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>get</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>still</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>better</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
@@ -313,49 +334,49 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>great</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>ox</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -719,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +748,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +809,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>0.828125</v>
+        <v>0.859375</v>
       </c>
       <c r="L3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -830,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9191919191919192</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.864406779661017</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.7322033898305085</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M5">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -930,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8490566037735849</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0.6656346749226006</v>
+        <v>0.6563467492260062</v>
       </c>
       <c r="L7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M7">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8">
-        <v>0.6103896103896104</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.82</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>0.5887445887445888</v>
+        <v>0.5281385281385281</v>
       </c>
       <c r="L9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1159,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8054054054054054</v>
+        <v>0.775</v>
       </c>
       <c r="C10">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>0.5</v>
@@ -1188,13 +1209,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7358490566037735</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,31 +1227,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>0.3783783783783784</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1259,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,31 +1277,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,13 +1309,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.684931506849315</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K13">
-        <v>0.3287671232876712</v>
+        <v>0.2993579454253611</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>49</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1338,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6296296296296297</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K14">
-        <v>0.308641975308642</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6132075471698113</v>
+        <v>0.71875</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,31 +1427,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>0.297427652733119</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="L15">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>874</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1459,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K16">
-        <v>0.2380952380952381</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -1480,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5897435897435898</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>0.1506849315068493</v>
+        <v>0.152054794520548</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1530,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1538,13 +1559,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5897435897435898</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K18">
-        <v>0.1503759398496241</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1609,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5882352941176471</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K19">
-        <v>0.1282051282051282</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1659,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5658914728682171</v>
+        <v>0.6370370370370371</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K20">
-        <v>0.1258278145695364</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1680,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1688,37 +1709,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5510204081632653</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C21">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K21">
-        <v>0.1145038167938931</v>
+        <v>0.119205298013245</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1759,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,31 +1777,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K22">
-        <v>0.1144578313253012</v>
+        <v>0.07125307125307126</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1788,13 +1809,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5211267605633803</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1806,31 +1827,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K23">
-        <v>0.06142506142506143</v>
+        <v>0.06009615384615385</v>
       </c>
       <c r="L23">
         <v>25</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,13 +1859,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5172413793103449</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1856,31 +1877,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K24">
-        <v>0.0492676431424767</v>
+        <v>0.04645161290322581</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N24">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="O24">
-        <v>0.09999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>714</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1888,13 +1909,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5132743362831859</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1906,31 +1927,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K25">
-        <v>0.04487179487179487</v>
+        <v>0.044</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>745</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1938,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4942528735632184</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,31 +1977,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K26">
-        <v>0.03559870550161812</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1988,25 +2009,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4888888888888889</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C27">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27">
+        <v>0.01438159156279962</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
         <v>44</v>
       </c>
-      <c r="D27">
-        <v>44</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>46</v>
+      <c r="N27">
+        <v>0.34</v>
+      </c>
+      <c r="O27">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2014,13 +2059,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4848484848484849</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2032,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2085,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4807692307692308</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2066,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4743589743589743</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C30">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2084,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2092,13 +2137,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4660194174757282</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2110,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2118,13 +2163,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4545454545454545</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2136,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2144,13 +2189,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2162,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2170,13 +2215,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2188,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2196,13 +2241,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3728813559322034</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2214,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2222,13 +2267,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3519553072625698</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C36">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2240,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2248,13 +2293,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3461538461538461</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2266,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2274,13 +2319,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3409090909090909</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2292,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2300,7 +2345,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
         <v>22</v>
@@ -2318,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2326,13 +2371,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2962962962962963</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2344,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2352,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.288659793814433</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2370,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2378,13 +2423,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2884615384615384</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2396,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2404,13 +2449,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2763157894736842</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2422,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2430,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2542372881355932</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C44">
         <v>15</v>
@@ -2448,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2456,25 +2501,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2513513513513513</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C45">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>277</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2482,13 +2527,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2352941176470588</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2500,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2508,13 +2553,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2323232323232323</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2526,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2534,13 +2579,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2222222222222222</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2552,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2560,13 +2605,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2185430463576159</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2578,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2586,13 +2631,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.217687074829932</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2604,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>230</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2612,25 +2657,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2142857142857143</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2638,25 +2683,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2068965517241379</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2664,13 +2709,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2051282051282051</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2682,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2690,13 +2735,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1984126984126984</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2708,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2716,13 +2761,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1981981981981982</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2734,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2742,13 +2787,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1807228915662651</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2760,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2768,13 +2813,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.18</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2786,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2794,13 +2839,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1793103448275862</v>
+        <v>0.2318059299191375</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2812,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>119</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2820,13 +2865,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1720430107526882</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2838,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2846,13 +2891,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.17</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2864,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2872,25 +2917,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.162280701754386</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>191</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2898,13 +2943,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1593406593406593</v>
+        <v>0.22</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2916,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2924,13 +2969,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1464646464646465</v>
+        <v>0.205</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2942,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2950,13 +2995,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1381578947368421</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2968,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2976,13 +3021,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1376146788990826</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2994,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3002,13 +3047,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1251700680272109</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="C66">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3020,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>643</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3028,13 +3073,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1179775280898876</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3046,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3054,13 +3099,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1103448275862069</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3072,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>129</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3080,25 +3125,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.108355091383812</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C69">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>683</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3106,13 +3151,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1024390243902439</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D70">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3124,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>368</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3132,13 +3177,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09698996655518395</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3150,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>270</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3158,25 +3203,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09392265193370165</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3184,25 +3229,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09289617486338798</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>19</v>
       </c>
       <c r="E73">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3210,13 +3255,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06598984771573604</v>
+        <v>0.1438127090301003</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3228,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>368</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3236,25 +3281,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.06145251396648044</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>336</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3262,25 +3307,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05576208178438662</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E76">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="F76">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>254</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3288,25 +3333,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0443213296398892</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E77">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>345</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3314,25 +3359,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0424978317432784</v>
+        <v>0.124390243902439</v>
       </c>
       <c r="C78">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D78">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E78">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1104</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3340,25 +3385,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04098360655737705</v>
+        <v>0.1148825065274151</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>351</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3366,25 +3411,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04087193460490463</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>352</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3392,25 +3437,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.03931203931203931</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>391</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3418,25 +3463,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.03640776699029126</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C82">
         <v>15</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>397</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3444,25 +3489,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03461538461538462</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>502</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3470,25 +3515,207 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03393025447690858</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="C84">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1025</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.06179775280898876</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>24</v>
+      </c>
+      <c r="E85">
+        <v>0.08</v>
+      </c>
+      <c r="F85">
+        <v>0.92</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>0.15</v>
+      </c>
+      <c r="F86">
+        <v>0.85</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.05327510917030567</v>
+      </c>
+      <c r="C87">
+        <v>61</v>
+      </c>
+      <c r="D87">
+        <v>73</v>
+      </c>
+      <c r="E87">
+        <v>0.16</v>
+      </c>
+      <c r="F87">
+        <v>0.84</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.0473186119873817</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>0.12</v>
+      </c>
+      <c r="F88">
+        <v>0.88</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>0.24</v>
+      </c>
+      <c r="F89">
+        <v>0.76</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.03269230769230769</v>
+      </c>
+      <c r="C90">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>0.11</v>
+      </c>
+      <c r="F90">
+        <v>0.89</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.02743614001892148</v>
+      </c>
+      <c r="C91">
+        <v>29</v>
+      </c>
+      <c r="D91">
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <v>0.34</v>
+      </c>
+      <c r="F91">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
